--- a/biology/Zoologie/Gloydius_intermedius/Gloydius_intermedius.xlsx
+++ b/biology/Zoologie/Gloydius_intermedius/Gloydius_intermedius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gloydius intermedius est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gloydius intermedius est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le nord-ouest de l'Afghanistan ;
 en République populaire de Chine ;
 dans le sud-est de la Russie ;
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un serpent venimeux.
 </t>
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Strauch, 1868 : Trudy Perv. Siezda Russ. Yestestv. Zool., vol. 1, p. 294.</t>
         </is>
